--- a/convertexcel/demoData.xlsx
+++ b/convertexcel/demoData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="17">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -37,6 +37,12 @@
     <t xml:space="preserve">isHandsome</t>
   </si>
   <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbies</t>
+  </si>
+  <si>
     <t xml:space="preserve">KyPham</t>
   </si>
   <si>
@@ -46,6 +52,12 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">Ha Noi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitar’</t>
+  </si>
+  <si>
     <t xml:space="preserve">HanhPham</t>
   </si>
   <si>
@@ -53,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dancing</t>
   </si>
 </sst>
 </file>
@@ -67,6 +85,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -148,10 +167,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -175,22 +194,34 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,16 +229,390 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
